--- a/小鸭/小鸭日更临时表_已处理.xlsx
+++ b/小鸭/小鸭日更临时表_已处理.xlsx
@@ -29,139 +29,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>652/24年</t>
-  </si>
-  <si>
-    <t>543/24年</t>
-  </si>
-  <si>
-    <t>593/24年</t>
-  </si>
-  <si>
-    <t>1244-24年</t>
-  </si>
-  <si>
-    <t>174/英文
-176/中文</t>
-  </si>
-  <si>
-    <t>889/24年</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>644/24年</t>
+  </si>
+  <si>
+    <t>540/24年</t>
+  </si>
+  <si>
+    <t>588/24年</t>
+  </si>
+  <si>
+    <t>1225-24年</t>
+  </si>
+  <si>
+    <t>172/英文
+175/中文</t>
+  </si>
+  <si>
+    <t>888/24年</t>
   </si>
   <si>
     <t>529-150ml</t>
   </si>
   <si>
-    <t>549/ 740</t>
-  </si>
-  <si>
-    <t>770崩
-509-50ML</t>
-  </si>
-  <si>
-    <t>374-24年</t>
-  </si>
-  <si>
-    <t>207-125ml</t>
-  </si>
-  <si>
-    <t>113旧款
+    <t>540/ 733</t>
+  </si>
+  <si>
+    <t>774
+500-50ML</t>
+  </si>
+  <si>
+    <t>362-24年</t>
+  </si>
+  <si>
+    <t>206-125ml</t>
+  </si>
+  <si>
+    <t>114旧款
 122新款</t>
   </si>
   <si>
-    <t>678九代</t>
-  </si>
-  <si>
-    <t>610新版
-465老版</t>
-  </si>
-  <si>
-    <t>645新版</t>
-  </si>
-  <si>
-    <t>800新版</t>
-  </si>
-  <si>
-    <t>384-24年
-365四代</t>
-  </si>
-  <si>
-    <t>213-25年</t>
-  </si>
-  <si>
-    <t>587新版
-585老版</t>
-  </si>
-  <si>
-    <t>411/24年</t>
-  </si>
-  <si>
-    <t>92/ 102</t>
-  </si>
-  <si>
-    <t>179
-error</t>
-  </si>
-  <si>
-    <t>158-24年</t>
-  </si>
-  <si>
-    <t>167-24年</t>
-  </si>
-  <si>
-    <t>310-200ml</t>
-  </si>
-  <si>
-    <t>336-200ml</t>
-  </si>
-  <si>
-    <t>287新版</t>
-  </si>
-  <si>
-    <t>301新版</t>
-  </si>
-  <si>
-    <t>526-24年
-520-23年</t>
-  </si>
-  <si>
-    <t>91/ 156</t>
-  </si>
-  <si>
-    <t>220滋润
-190轻盈</t>
-  </si>
-  <si>
-    <t>93-200ml
-125-300ml</t>
-  </si>
-  <si>
-    <t>error
-544-90ml</t>
-  </si>
-  <si>
-    <t>214-30ml</t>
-  </si>
-  <si>
-    <t>226-50ml
-281-90ml</t>
-  </si>
-  <si>
-    <t>error
-error</t>
-  </si>
-  <si>
-    <t>354-24年</t>
+    <t>392九代-24年</t>
+  </si>
+  <si>
+    <t>485九代-24年</t>
+  </si>
+  <si>
+    <t>676九代</t>
+  </si>
+  <si>
+    <t>604新版
+460老版</t>
+  </si>
+  <si>
+    <t>627新版</t>
+  </si>
+  <si>
+    <t>767新版</t>
+  </si>
+  <si>
+    <t>381-24年
+361四代</t>
+  </si>
+  <si>
+    <t>三代100ml477</t>
+  </si>
+  <si>
+    <t>202-24年
+210-25年</t>
+  </si>
+  <si>
+    <t>406靓妆标
+401无标</t>
+  </si>
+  <si>
+    <t>581新版
+579老版</t>
+  </si>
+  <si>
+    <t>406/24年</t>
+  </si>
+  <si>
+    <t>405/24年</t>
+  </si>
+  <si>
+    <t>93 / 99</t>
+  </si>
+  <si>
+    <t>182
+176-1W0</t>
+  </si>
+  <si>
+    <t>160-24年</t>
+  </si>
+  <si>
+    <t>165-24年
+151-1W2</t>
+  </si>
+  <si>
+    <t>309-200ml</t>
+  </si>
+  <si>
+    <t>338-200ml</t>
+  </si>
+  <si>
+    <t>286新版</t>
+  </si>
+  <si>
+    <t>298新版</t>
+  </si>
+  <si>
+    <t>516-24年
+511-23年</t>
+  </si>
+  <si>
+    <t>103/</t>
+  </si>
+  <si>
+    <t>397-24年浓</t>
+  </si>
+  <si>
+    <t>217-30ml</t>
+  </si>
+  <si>
+    <t>260淡-50ml</t>
+  </si>
+  <si>
+    <t>228-50ml
+279-90ml</t>
+  </si>
+  <si>
+    <t>421淡-100ml
+312淡-50ml</t>
+  </si>
+  <si>
+    <t>349-24年</t>
+  </si>
+  <si>
+    <t>兜底1710</t>
+  </si>
+  <si>
+    <t>兜底1310</t>
+  </si>
+  <si>
+    <t>兜底871</t>
+  </si>
+  <si>
+    <t>兜底1090</t>
+  </si>
+  <si>
+    <t>兜底1845</t>
   </si>
   <si>
     <t>代卖</t>
   </si>
   <si>
-    <t>2619/ 3340</t>
+    <t>2580/ 3250</t>
+  </si>
+  <si>
+    <t>2610/ 3330</t>
   </si>
 </sst>
 </file>
@@ -173,20 +200,12 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="#\ ???/???"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -783,133 +802,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -917,82 +936,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,872 +1327,856 @@
   <sheetPr/>
   <dimension ref="A1:A242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2"/>
-    </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4"/>
-    </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" ht="27" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" ht="27" spans="1:1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:1">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="6"/>
-    </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="7">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" ht="27" spans="1:1">
+      <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="8">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" ht="27" spans="1:1">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+    <row r="41" ht="27" spans="1:1">
+      <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:1">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+    <row r="49" ht="27" spans="1:1">
+      <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:1">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" ht="27" spans="1:1">
+      <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" ht="27" spans="1:1">
-      <c r="A52" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3">
+        <v>203</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="4">
-        <v>207</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="5">
-        <v>419</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4" t="s">
-        <v>0</v>
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" ht="27" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="4" t="s">
-        <v>0</v>
+      <c r="A60" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3">
+        <v>228</v>
+      </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="4">
-        <v>233</v>
+      <c r="A64" s="3">
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" ht="27" spans="1:1">
-      <c r="A67" s="4" t="s">
-        <v>14</v>
+      <c r="A65" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:1">
+      <c r="A66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="4" t="s">
-        <v>16</v>
+      <c r="A70" s="3">
+        <v>1210</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="4">
-        <v>213</v>
-      </c>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" ht="27" spans="1:1">
-      <c r="A75" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" ht="27" spans="1:1">
+      <c r="A74" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="4">
-        <v>239</v>
+      <c r="A77" s="3">
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="4">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="6"/>
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" ht="27" spans="1:1">
+      <c r="A79" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="4">
-        <v>137</v>
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" ht="27" spans="1:1">
+      <c r="A81" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="4"/>
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" ht="40.5" spans="1:1">
+      <c r="A84" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="4">
-        <v>419</v>
-      </c>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="4"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="4"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3">
+        <v>428</v>
+      </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4">
-        <v>425</v>
-      </c>
+      <c r="A89" s="10"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="6"/>
+      <c r="A91" s="3">
+        <v>210</v>
+      </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="4">
-        <v>209</v>
+      <c r="A92" s="3">
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3">
+        <v>152</v>
+      </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="4">
-        <v>151</v>
+      <c r="A94" s="3">
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="4">
-        <v>271</v>
-      </c>
+      <c r="A95" s="11"/>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="12"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="13">
-        <v>80</v>
-      </c>
+      <c r="A97" s="12"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="13">
-        <v>169</v>
-      </c>
+      <c r="A98" s="12"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="13"/>
+      <c r="A99" s="12"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="13"/>
+      <c r="A100" s="12"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="13">
-        <v>125</v>
-      </c>
+      <c r="A102" s="13"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="14"/>
+      <c r="A103" s="12"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="13"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="4"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="15"/>
-    </row>
-    <row r="108" ht="27" spans="1:1">
-      <c r="A108" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A106" s="14"/>
+    </row>
+    <row r="107" ht="27" spans="1:1">
+      <c r="A107" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3">
+        <v>173</v>
+      </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="4">
-        <v>174</v>
-      </c>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="6"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="4"/>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="6"/>
+      <c r="A114" s="3">
+        <v>281</v>
+      </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="4">
-        <v>284</v>
+      <c r="A115" s="3">
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="4">
-        <v>397</v>
-      </c>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3">
+        <v>450</v>
+      </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="4">
-        <v>459</v>
-      </c>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="6"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="4" t="s">
-        <v>20</v>
+      <c r="A121" s="3">
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="4">
-        <v>232</v>
+      <c r="A122" s="3">
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="4">
-        <v>397</v>
+      <c r="A123" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="4" t="s">
-        <v>20</v>
+      <c r="A124" s="3">
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="4">
-        <v>184</v>
+      <c r="A125" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" ht="27" spans="1:1">
-      <c r="A128" s="4" t="s">
-        <v>22</v>
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" ht="27" spans="1:1">
+      <c r="A127" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="3">
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="4">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="4" t="s">
-        <v>24</v>
+      <c r="A129" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:1">
+      <c r="A130" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="1:1">
+      <c r="A131" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="132" ht="27" spans="1:1">
-      <c r="A132" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" ht="27" spans="1:1">
-      <c r="A133" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A132" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="4">
-        <v>1024</v>
-      </c>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="4"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="5">
-        <v>454</v>
-      </c>
+      <c r="A136" s="15"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="16"/>
+      <c r="A137" s="12"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="13"/>
+      <c r="A138" s="15"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="16"/>
+      <c r="A139" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="13" t="s">
-        <v>27</v>
+      <c r="A140" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="4"/>
+      <c r="A142" s="3">
+        <v>237</v>
+      </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="4">
-        <v>239</v>
-      </c>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="4"/>
+      <c r="A144" s="3">
+        <v>363</v>
+      </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="4"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="4"/>
+      <c r="A146" s="15"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="16"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="4"/>
+      <c r="A148" s="16">
+        <v>473</v>
+      </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="17">
-        <v>476</v>
+      <c r="A149" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="4">
-        <v>63</v>
-      </c>
+      <c r="A150" s="14"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="15"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" ht="27" spans="1:1">
-      <c r="A153" s="4" t="s">
-        <v>29</v>
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" ht="27" spans="1:1">
+      <c r="A152" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="3">
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="4">
-        <v>492</v>
-      </c>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="4">
-        <v>487</v>
-      </c>
+      <c r="A155" s="14"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="15"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="4"/>
+      <c r="A157" s="17" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="4"/>
+      <c r="A159" s="18">
+        <v>290</v>
+      </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="18">
-        <v>291</v>
-      </c>
+      <c r="A160" s="18"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="18">
-        <v>231</v>
-      </c>
+      <c r="A161" s="19"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="19"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="4"/>
+      <c r="A163" s="19"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="A164" s="14"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="15"/>
+      <c r="A165" s="3">
+        <v>222</v>
+      </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="4">
-        <v>223</v>
+      <c r="A166" s="3">
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" ht="27" spans="1:1">
-      <c r="A168" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="A167" s="12"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="4"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="15"/>
-    </row>
-    <row r="171" ht="40.5" spans="1:1">
-      <c r="A171" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="3"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" ht="27" spans="1:1">
-      <c r="A174" s="4" t="s">
-        <v>33</v>
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" ht="27" spans="1:1">
+      <c r="A173" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="3">
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="4">
-        <v>344</v>
+      <c r="A175" s="16">
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="17">
+      <c r="A176" s="16"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="184" ht="24" spans="1:1">
+      <c r="A184" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" ht="27" spans="1:1">
+      <c r="A186" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" ht="48" spans="1:1">
+      <c r="A187" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="9"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="3">
         <v>309</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="17"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="4">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="4">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="4">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" ht="27" spans="1:1">
-      <c r="A187" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="188" ht="24" spans="1:1">
-      <c r="A188" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="10"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="4">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="4"/>
-    </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="4">
-        <v>309</v>
+      <c r="A196" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="4"/>
+      <c r="A200" s="20"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="16">
+        <v>733</v>
+      </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="17">
-        <v>739</v>
+      <c r="A202" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="17" t="s">
-        <v>0</v>
+      <c r="A203" s="16">
+        <v>871</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="17">
-        <v>879</v>
+      <c r="A204" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="17" t="s">
-        <v>0</v>
+      <c r="A205" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="17" t="s">
-        <v>0</v>
+      <c r="A206" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="17" t="s">
-        <v>0</v>
+      <c r="A207" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="17" t="s">
-        <v>0</v>
+      <c r="A208" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="17">
-        <v>2034</v>
+      <c r="A209" s="9">
+        <v>2470</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="10">
-        <v>2479</v>
+      <c r="A210" s="21">
+        <v>3450</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="21">
-        <v>3459</v>
-      </c>
+      <c r="A211" s="21"/>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="21"/>
@@ -2191,119 +2194,121 @@
       <c r="A216" s="21"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="21"/>
+      <c r="A217" s="11"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="12"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="3"/>
+      <c r="A219" s="9"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="10"/>
+      <c r="A220" s="22"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="22"/>
+      <c r="A221" s="13">
+        <v>3320</v>
+      </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="14">
-        <v>3319</v>
+      <c r="A222" s="23">
+        <v>3440</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="23">
-        <v>3409</v>
+      <c r="A223" s="13">
+        <v>1715</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="14">
-        <v>1704</v>
+      <c r="A224" s="13">
+        <v>1860</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="14">
-        <v>1854</v>
+      <c r="A225" s="24">
+        <v>1700</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="24">
-        <v>1689</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="24">
-        <v>1729</v>
-      </c>
+      <c r="A227" s="25"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="25"/>
+      <c r="A228" s="12">
+        <v>3070</v>
+      </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="13">
-        <v>3079</v>
+      <c r="A229" s="12">
+        <v>2660</v>
       </c>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="13">
-        <v>2679</v>
+      <c r="A230" s="12">
+        <v>2690</v>
       </c>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="13">
-        <v>2699</v>
+      <c r="A231" s="12">
+        <v>2140</v>
       </c>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="13">
-        <v>2099</v>
+      <c r="A232" s="12">
+        <v>3230</v>
       </c>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="13">
-        <v>3239</v>
+      <c r="A233" s="12">
+        <v>2690</v>
       </c>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="13">
-        <v>2699</v>
+      <c r="A234" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A235" s="25"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="25"/>
+      <c r="A236" s="12">
+        <v>2090</v>
+      </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="13">
-        <v>2099</v>
+      <c r="A237" s="12">
+        <v>2190</v>
       </c>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="13">
-        <v>2119</v>
+      <c r="A238" s="26">
+        <v>2190</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="26">
-        <v>2199</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="26">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="26">
-        <v>2879</v>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="241" ht="27" spans="1:1">
+      <c r="A241" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="242" ht="27" spans="1:1">
-      <c r="A242" s="13" t="s">
-        <v>39</v>
+      <c r="A242" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
